--- a/paper/tables/Table2.xlsx
+++ b/paper/tables/Table2.xlsx
@@ -12,23 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
   <si>
-    <t xml:space="preserve">Scale</t>
-  </si>
-  <si>
     <t xml:space="preserve">Range</t>
   </si>
   <si>
     <t xml:space="preserve">Age</t>
   </si>
   <si>
-    <t xml:space="preserve">Continuous</t>
-  </si>
-  <si>
     <t xml:space="preserve">4-36 months (mean (SD): 21 (9))</t>
   </si>
   <si>
@@ -59,16 +53,13 @@
     <t xml:space="preserve">Amplification</t>
   </si>
   <si>
-    <t xml:space="preserve">Categorical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hearing Aid / Cochlear Implant / None</t>
+    <t xml:space="preserve">Hearing Aid (54) / Cochlear Implant (17) / None (27)</t>
   </si>
   <si>
     <t xml:space="preserve">Communication</t>
   </si>
   <si>
-    <t xml:space="preserve">Spoken / Total Communication / Cued Speech</t>
+    <t xml:space="preserve">Spoken (79) / Total Communication (18) / Cued Speech (1)</t>
   </si>
   <si>
     <t xml:space="preserve">Degree Hearing Loss (worse ear)</t>
@@ -80,37 +71,43 @@
     <t xml:space="preserve">Developmental Delay</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes / No</t>
+    <t xml:space="preserve">Yes (17) / No (81)</t>
   </si>
   <si>
     <t xml:space="preserve">Gender</t>
   </si>
   <si>
-    <t xml:space="preserve">Female / Male</t>
+    <t xml:space="preserve">Female (44) / Male (56)</t>
   </si>
   <si>
     <t xml:space="preserve">Health Issues</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes (36) / No (62)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Language in Home</t>
   </si>
   <si>
-    <t xml:space="preserve">English / Other</t>
+    <t xml:space="preserve">English (85) / Other (15)</t>
   </si>
   <si>
     <t xml:space="preserve">Laterality</t>
   </si>
   <si>
-    <t xml:space="preserve">Unilateral / Bilateral</t>
+    <t xml:space="preserve">Unilateral (25) / Bilateral (73)</t>
   </si>
   <si>
     <t xml:space="preserve">1-3-6</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes (35) / No (60)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Premature Birth</t>
   </si>
   <si>
-    <t xml:space="preserve">Full-term / Premature</t>
+    <t xml:space="preserve">Full-term (16) / Premature (82)</t>
   </si>
   <si>
     <t xml:space="preserve">Services Per Month</t>
@@ -122,7 +119,7 @@
     <t xml:space="preserve">Etiology</t>
   </si>
   <si>
-    <t xml:space="preserve">Sensorineural / Conductive / Mixed</t>
+    <t xml:space="preserve">Sensorineural (62) / Conductive (18) / Mixed (8)</t>
   </si>
   <si>
     <t xml:space="preserve">CDI - Words Produced</t>
@@ -467,206 +464,149 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
         <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
         <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/paper/tables/Table2.xlsx
+++ b/paper/tables/Table2.xlsx
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Gender</t>
   </si>
   <si>
-    <t xml:space="preserve">Female (44) / Male (56)</t>
+    <t xml:space="preserve">Female (44) / Male (57)</t>
   </si>
   <si>
     <t xml:space="preserve">Health Issues</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">Language in Home</t>
   </si>
   <si>
-    <t xml:space="preserve">English (85) / Other (15)</t>
+    <t xml:space="preserve">English (85) / Other (16)</t>
   </si>
   <si>
     <t xml:space="preserve">Laterality</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">CDI - Words Produced</t>
   </si>
   <si>
-    <t xml:space="preserve">0-635 words (mean (SD): 61 (111))</t>
+    <t xml:space="preserve">0-635 words (mean (SD): 60 (111))</t>
   </si>
 </sst>
 </file>

--- a/paper/tables/Table2.xlsx
+++ b/paper/tables/Table2.xlsx
@@ -53,61 +53,61 @@
     <t xml:space="preserve">Amplification</t>
   </si>
   <si>
-    <t xml:space="preserve">Hearing Aid (54) / Cochlear Implant (17) / None (27)</t>
+    <t xml:space="preserve">Hearing Aid (53) / Cochlear Implant (17) / None (27)</t>
   </si>
   <si>
     <t xml:space="preserve">Communication</t>
   </si>
   <si>
-    <t xml:space="preserve">Spoken (79) / Total Communication (18) / Cued Speech (1)</t>
+    <t xml:space="preserve">Spoken (78) / Total Communication (18) / Cued Speech (1)</t>
   </si>
   <si>
     <t xml:space="preserve">Degree Hearing Loss (worse ear)</t>
   </si>
   <si>
-    <t xml:space="preserve">18-100 dB HL (mean (SD): 64 (24))</t>
+    <t xml:space="preserve">18-100 dB HL (mean (SD): 65 (23))</t>
   </si>
   <si>
     <t xml:space="preserve">Developmental Delay</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes (17) / No (81)</t>
+    <t xml:space="preserve">Yes (16) / No (81)</t>
   </si>
   <si>
     <t xml:space="preserve">Gender</t>
   </si>
   <si>
-    <t xml:space="preserve">Female (44) / Male (57)</t>
+    <t xml:space="preserve">Female (44) / Male (56)</t>
   </si>
   <si>
     <t xml:space="preserve">Health Issues</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes (36) / No (62)</t>
+    <t xml:space="preserve">Yes (35) / No (62)</t>
   </si>
   <si>
     <t xml:space="preserve">Language in Home</t>
   </si>
   <si>
-    <t xml:space="preserve">English (85) / Other (16)</t>
+    <t xml:space="preserve">English (84) / Other (16)</t>
   </si>
   <si>
     <t xml:space="preserve">Laterality</t>
   </si>
   <si>
-    <t xml:space="preserve">Unilateral (25) / Bilateral (73)</t>
+    <t xml:space="preserve">Unilateral (25) / Bilateral (72)</t>
   </si>
   <si>
     <t xml:space="preserve">1-3-6</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes (35) / No (60)</t>
+    <t xml:space="preserve">Yes (35) / No (59)</t>
   </si>
   <si>
     <t xml:space="preserve">Premature Birth</t>
   </si>
   <si>
-    <t xml:space="preserve">Full-term (16) / Premature (82)</t>
+    <t xml:space="preserve">Full-term (16) / Premature (81)</t>
   </si>
   <si>
     <t xml:space="preserve">Services Per Month</t>
@@ -119,13 +119,13 @@
     <t xml:space="preserve">Etiology</t>
   </si>
   <si>
-    <t xml:space="preserve">Sensorineural (62) / Conductive (18) / Mixed (8)</t>
+    <t xml:space="preserve">Sensorineural (61) / Conductive (18) / Mixed (8)</t>
   </si>
   <si>
     <t xml:space="preserve">CDI - Words Produced</t>
   </si>
   <si>
-    <t xml:space="preserve">0-635 words (mean (SD): 60 (111))</t>
+    <t xml:space="preserve">0-635 words (mean (SD): 61 (111))</t>
   </si>
 </sst>
 </file>

--- a/paper/tables/Table2.xlsx
+++ b/paper/tables/Table2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -53,37 +53,37 @@
     <t xml:space="preserve">Amplification</t>
   </si>
   <si>
-    <t xml:space="preserve">Hearing Aid (53) / Cochlear Implant (17) / None (27)</t>
+    <t xml:space="preserve">Hearing Aid (53) / Cochlear Implant (17) / None (28)</t>
   </si>
   <si>
     <t xml:space="preserve">Communication</t>
   </si>
   <si>
-    <t xml:space="preserve">Spoken (78) / Total Communication (18) / Cued Speech (1)</t>
+    <t xml:space="preserve">Spoken (79) / Total Communication (18) / Cued Speech (1)</t>
   </si>
   <si>
     <t xml:space="preserve">Degree Hearing Loss (worse ear)</t>
   </si>
   <si>
-    <t xml:space="preserve">18-100 dB HL (mean (SD): 65 (23))</t>
+    <t xml:space="preserve">18-100 dB HL (mean (SD): 64 (23))</t>
   </si>
   <si>
     <t xml:space="preserve">Developmental Delay</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes (16) / No (81)</t>
+    <t xml:space="preserve">Yes (16) / No (82)</t>
   </si>
   <si>
     <t xml:space="preserve">Gender</t>
   </si>
   <si>
-    <t xml:space="preserve">Female (44) / Male (56)</t>
+    <t xml:space="preserve">Female (43) / Male (57)</t>
   </si>
   <si>
     <t xml:space="preserve">Health Issues</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes (35) / No (62)</t>
+    <t xml:space="preserve">Yes (36) / No (62)</t>
   </si>
   <si>
     <t xml:space="preserve">Language in Home</t>
@@ -95,37 +95,43 @@
     <t xml:space="preserve">Laterality</t>
   </si>
   <si>
-    <t xml:space="preserve">Unilateral (25) / Bilateral (72)</t>
+    <t xml:space="preserve">Unilateral (26) / Bilateral (72)</t>
   </si>
   <si>
     <t xml:space="preserve">1-3-6</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes (35) / No (59)</t>
+    <t xml:space="preserve">Yes (34) / No (61)</t>
   </si>
   <si>
     <t xml:space="preserve">Premature Birth</t>
   </si>
   <si>
-    <t xml:space="preserve">Full-term (16) / Premature (81)</t>
+    <t xml:space="preserve">Full-term (16) / Premature (82)</t>
   </si>
   <si>
     <t xml:space="preserve">Services Per Month</t>
   </si>
   <si>
-    <t xml:space="preserve">0-43 services per month (mean (SD): 6 (6))</t>
+    <t xml:space="preserve">0-43 services per month (mean (SD): 5 (6))</t>
   </si>
   <si>
     <t xml:space="preserve">Etiology</t>
   </si>
   <si>
-    <t xml:space="preserve">Sensorineural (61) / Conductive (18) / Mixed (8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDI - Words Produced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-635 words (mean (SD): 61 (111))</t>
+    <t xml:space="preserve">Sensorineural (62) / Conductive (19) / Mixed (8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Words and Gestures CDI - Words Produced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-259 words (mean (SD): 33 (53))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Words and Sentences CDI - Words Produced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-635 words (mean (SD): 148 (184))</t>
   </si>
 </sst>
 </file>
@@ -609,6 +615,14 @@
         <v>37</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
